--- a/sample_output/1401CB01.xlsx
+++ b/sample_output/1401CB01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>MARKSHEET</t>
   </si>
@@ -52,7 +52,7 @@
     <t>14.0</t>
   </si>
   <si>
-    <t>-2.0</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>Not Attempt</t>
@@ -67,7 +67,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>10.0</t>
   </si>
   <si>
     <t>Darlene Goodman</t>
@@ -76,13 +76,10 @@
     <t>1401CB01</t>
   </si>
   <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>-28.0</t>
-  </si>
-  <si>
-    <t>28.0/112.0</t>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>140.0/280.0</t>
   </si>
   <si>
     <t>Student Ans</t>
@@ -685,245 +682,245 @@
         <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
